--- a/biology/Botanique/Hyssopus_officinalis/Hyssopus_officinalis.xlsx
+++ b/biology/Botanique/Hyssopus_officinalis/Hyssopus_officinalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyssopus officinalis
 L’hysope, hysope officinale ou hyssope (Hyssopus officinalis L.) est un arbrisseau vivace de la famille des Lamiacées (Labiées), originaire des environnements de type garrigue dans les régions méditerranéennes. Ses fleurs, qui peuvent être violettes, bleues, blanches ou rouges, sont groupées en épis.
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hysope est originaire d'Europe méridionale, d'Afrique du Nord, d'Asie occidentale (Proche-Orient et Caucase), elle a été naturalisée dans toute l'Europe et en Amérique du Nord.
 Elle est citée au Moyen Âge dans le capitulaire De Villis, une liste des plantes recommandées à la culture dans les jardins de monastères sous Charlemagne.
@@ -544,12 +558,14 @@
           <t>Symbolique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est citée dans la Bible à l'occasion de la Pâque, juste avant que le peuple d'Israël ne quitte l'Égypte : « Et vous prendrez un bouquet d'hysope, et vous le tremperez dans le sang qui sera dans le bassin ; et du sang qui sera dans le bassin vous aspergerez le linteau et les deux poteaux ; et nul d'entre vous ne sortira de la porte de sa maison, jusqu'au matin[1]. »
-L'hysope est également citée au moment de la crucifixion de Jésus[2]. De même, l'hysope est évoquée comme plante purificatrice dans Psaume 51, verset 9, Asperge-moi avec l'hysope, Seigneur, et je serai purifié), qui est une des antiphones dont l'usage est prévu (hors temps pascal) dans l’aspersion avec l’eau bénite que l’on peut faire le dimanche au début de la Messe[3]
-Toutefois il ne s'agit pas de l'hysope officinale qui ne poussait pas en Galilée à l'époque mais plus probablement de la marjolaine ou de l'origan qui font partie de la même famille[4],[5].
-Dans la culture hébraïque, l'hysope symbolise l'humilité, en opposition au cèdre, image de la majesté : « [Salomon] a parlé sur les arbres, depuis le cèdre du Liban jusqu'à l'hysope qui sort de la muraille[6]. » Pour les mêmes raisons, les deux plantes sont associées dans la loi juive sur le lépreux, dans le sacrifice relatif à la guérison du lépreux : « [Le sacrificateur] prendra le bois de cèdre, l'hysope, le cramoisi et l'oiseau vivant[7]. »
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est citée dans la Bible à l'occasion de la Pâque, juste avant que le peuple d'Israël ne quitte l'Égypte : « Et vous prendrez un bouquet d'hysope, et vous le tremperez dans le sang qui sera dans le bassin ; et du sang qui sera dans le bassin vous aspergerez le linteau et les deux poteaux ; et nul d'entre vous ne sortira de la porte de sa maison, jusqu'au matin. »
+L'hysope est également citée au moment de la crucifixion de Jésus. De même, l'hysope est évoquée comme plante purificatrice dans Psaume 51, verset 9, Asperge-moi avec l'hysope, Seigneur, et je serai purifié), qui est une des antiphones dont l'usage est prévu (hors temps pascal) dans l’aspersion avec l’eau bénite que l’on peut faire le dimanche au début de la Messe
+Toutefois il ne s'agit pas de l'hysope officinale qui ne poussait pas en Galilée à l'époque mais plus probablement de la marjolaine ou de l'origan qui font partie de la même famille,.
+Dans la culture hébraïque, l'hysope symbolise l'humilité, en opposition au cèdre, image de la majesté : « [Salomon] a parlé sur les arbres, depuis le cèdre du Liban jusqu'à l'hysope qui sort de la muraille. » Pour les mêmes raisons, les deux plantes sont associées dans la loi juive sur le lépreux, dans le sacrifice relatif à la guérison du lépreux : « [Le sacrificateur] prendra le bois de cèdre, l'hysope, le cramoisi et l'oiseau vivant. »
 </t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hysope trouvait sa place dans les jardins de simples, jardins de curés et autres jardins médiévaux.
 Elle préfère les emplacements ensoleillés dans une terre plutôt sèche et bien drainée.
@@ -615,47 +633,54 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Utilisation horticole
-Résistante et demandant peu d'entretien l'hysope est utilisée dans les jardins d'ornement comme plante de rocaille. Elle peut être utilisée comme espèce pour les toitures végétales[8]. C'est aussi une plante mellifère.
-Utilisation alimentaire
-L'hysope est une plante potagère en tant que plante condimentaire. Ses feuilles, fraîches ou séchées, sont utilisées, finement hachées, pour aromatiser les crudités et les salades, les farces pour le porc, l'oie ou le canard, mais aussi dans les sauces et les soupes.
+          <t>Utilisation horticole</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Résistante et demandant peu d'entretien l'hysope est utilisée dans les jardins d'ornement comme plante de rocaille. Elle peut être utilisée comme espèce pour les toitures végétales. C'est aussi une plante mellifère.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hyssopus_officinalis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyssopus_officinalis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Utilisation alimentaire</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hysope est une plante potagère en tant que plante condimentaire. Ses feuilles, fraîches ou séchées, sont utilisées, finement hachées, pour aromatiser les crudités et les salades, les farces pour le porc, l'oie ou le canard, mais aussi dans les sauces et les soupes.
 Elle constitue l'ingrédient de base du za'atar au Levant.
 Ses fleurs relèvent agréablement le goût des salades et des légumes.
 Elle entre aussi dans la composition de certaines liqueurs, du pastis, de l'eau de mélisse, de l'absinthe suisse. C'est l'un des éléments essentiels de l'élixir de la Grande-Chartreuse, de la bénédictine.
-L'hysope a pu aussi servir d'agent aromatisant lors du brassage de la bière[9].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Hyssopus_officinalis</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hyssopus_officinalis</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Propriétés toxicologiques et médicinales</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hysope est une plante médicinale. Toutes les parties de la plante sont utilisées pour différentes indications thérapeutiques : antiseptique, stimulante, stomachique et expectorante[10]. Elle était également utilisée traditionnellement pour avorter[11]. 
-L'huile essentielle d'hysope officinale (Hyssopus officinalis var. officinalis) est neurotoxique et abortive. Pour cette raison, sa commercialisation est réglementée[12].
-On retrouve l'huile d'hysope dans une liste d'additifs dans les cigarettes.
+L'hysope a pu aussi servir d'agent aromatisant lors du brassage de la bière.
 </t>
         </is>
       </c>
@@ -681,12 +706,49 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Propriétés toxicologiques et médicinales</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hysope est une plante médicinale. Toutes les parties de la plante sont utilisées pour différentes indications thérapeutiques : antiseptique, stimulante, stomachique et expectorante. Elle était également utilisée traditionnellement pour avorter. 
+L'huile essentielle d'hysope officinale (Hyssopus officinalis var. officinalis) est neurotoxique et abortive. Pour cette raison, sa commercialisation est réglementée.
+On retrouve l'huile d'hysope dans une liste d'additifs dans les cigarettes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hyssopus_officinalis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyssopus_officinalis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Utilisation traditionnelle</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Utilisation traditionnelle[13] :
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Utilisation traditionnelle :
 pour stimuler la digestion (aromate) ;
 pour aider à l'évacuation des gaz intestinaux (carminatif) ;
 comme tonique pour fortifier et soulager les muqueuses des voies respiratoires et des voies gastro-intestinales ;
@@ -694,7 +756,7 @@
 pour fortifier le système respiratoire (pectoral) ;
 pour réduire la fièvre (antipyrétique) ;
 pour induire la sudation (diaphorétique).
-			Portrait de Christoph von Suchten tenant dans sa main une branche d'hysope considérée comme un symbole de la foi, de la pureté physique et de la régénération morale, 1507, Musée national de Dantzig[14]
+			Portrait de Christoph von Suchten tenant dans sa main une branche d'hysope considérée comme un symbole de la foi, de la pureté physique et de la régénération morale, 1507, Musée national de Dantzig
 			Pollen
 			Fleur
 			Hysope au Danemark
